--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/44_Karaman_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/44_Karaman_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1214BA-F388-461F-8339-AEA44EBC14E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99528F68-C7C2-47C3-92DC-849ABDC52BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{3709A7E6-BABB-4AC8-98AA-E1E103DA03CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{FD920555-6A82-445D-B209-B7226A89D00D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -932,14 +932,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C2EBABAD-BFD9-4AD7-A5B5-835D4AC16CA0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{874C2756-A164-482D-BA53-0D691D8CCB9F}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8BCB36AB-F1B6-428B-965E-0E80633080FC}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{54F51FEB-6D6D-418C-9D70-19130CF5E896}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E17B60EE-BFC8-425F-B7AB-8AB88158166F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{180DD2DA-D957-4F48-91E7-B2C3AFC3FD71}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7278FFA2-A9AC-4282-BDE5-46148FE2E443}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{1E81ABB0-C16F-4460-955D-5AD975E73013}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{486A2D7C-63DC-4923-8215-5F46A7F554D4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6FAE6B41-4F1A-49BB-AC6E-0CFB3FF5E14E}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{2FDCF86B-1F1E-4448-9E04-FEE989328679}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{4E9AC445-E407-4D40-9EF5-5D4883C955FC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C78DAA7A-7FEE-4228-B6FC-B50A38662CF5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{744491D9-2BD7-4CD3-A8C9-7540F38A802D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{8EC2F1E0-5727-4110-A121-2A32EEB3BE7C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2FF4F640-97B1-4A5A-8531-1FF2E74E0B74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38450A87-AF72-4EC6-AC79-33BA451B9F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD6308-594D-407B-BD98-20D3A01BE0C8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2534,18 +2534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75555F5A-0964-40F0-976B-79B687AF210B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC79554A-1901-42C9-8583-0E5EFA1C5A18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1A7C412-97AF-404C-AF58-8094FBFC60CA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5FAD201F-A8AD-4D3C-806D-FC39864A59A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5893DE1A-7284-4855-8A63-554E354EE6B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BCC98EE-9A70-42ED-BF07-3B589A683EDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{493036B0-2169-43E0-AF5F-A012A7EC6188}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58FBDF5F-3946-4968-980A-A26CC576B56A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5C3FE01-F678-441A-A58D-39C2B85EADA4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B433D436-2C01-40B7-BE98-55332F63B30F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFF0D4BF-DC06-4019-B251-539E9504A4A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3D5CC87-D4B3-430D-867E-47B3951B3DF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46449280-4F79-43D4-A973-89047472661D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6591E8C-26B1-49C4-9720-42B511371236}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E81DECE5-346E-4EBF-B826-DA6B27EAA364}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{966E9E00-AA0C-48F5-B9F6-6B0A184368A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20830583-16A0-45C9-A1CD-F5487DA42FA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4EB663F-67CE-4C91-8FE6-B10A3595097F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{897EAE5C-A7AB-4EDD-87E4-0F2375A1E941}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D2D07C7-3F57-473C-BF00-278665516F98}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64509E00-F7F7-4771-9300-655AD34B7745}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21173A01-EDBE-4B97-AC6F-1B71A268C4E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42FE0875-970D-4089-BEF9-ECBE9845CDA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD510135-D9B4-4D0E-841B-1FF60AB5D28D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E381A-D1C6-4C78-9908-7D9B28688013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244351DC-929D-4DEF-9D07-5798614DFA26}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3761,18 +3761,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E4A325-039B-4CE6-BC92-F9C9EA77FBE3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFF55AC2-567B-4919-9835-16B02E49DEC3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC09C0B3-F39D-4102-8638-7FD74A312AD1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B051E7C9-9BCD-413E-9985-3CECE86A2E3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB3502C0-5EE7-4546-BA10-490D8F0787DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF1FFE05-290C-4543-907A-9AB6EAA9D6A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCA0EF7F-8CED-4002-A6BD-1D30FAB2EFA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32E0EE11-B976-457E-A7AE-C6FC96AAB8AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41453BC7-CA12-4D79-9D43-C749B973EE59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08713521-735D-4546-98DB-1E8974ADE83F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B750A949-9EAD-47A2-B390-5823CEE20CF5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{093A7BD9-62F9-4C21-83FD-81AEC42E7353}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B404010-AB75-4F8F-901D-413C7ED9123E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{18CF93A9-1339-4699-94FC-27D336F17820}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1952BB8B-99B2-4E59-AB71-D3F1CA5C534A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{48218FA9-EB36-413C-A9F5-B1CD1D98C50E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86CB0E97-D4BB-4020-937C-8FCBB4ED5FAA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{627A4C99-FE92-4DD6-8B37-E9406E91E22C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23F9130F-3CAF-4DD3-BD84-591709062550}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48232337-5ADD-4A6F-B021-573C12ACC78C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{829F7282-0857-4D45-890C-A551BBED0B15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49FA45DE-7D71-4EB2-B29D-24DF10384ECF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B761B947-23CB-4A67-8F21-6A6C9E466E36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11958E73-E8F5-4D4C-9A56-C07367441550}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3785,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B187966C-80F6-4BC0-8AAF-CFA35557BC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D7338D-4E2F-4CA1-974C-6EE0589116F9}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4980,17 +4980,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B551690-BAFC-4BD2-8137-CAEDB3CD5DA0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{14CF1311-8F84-4F9F-94BF-554C1F6C07F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{763BBD1E-F67F-43F0-91E2-1645A48914C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB45AD5B-536F-4A4D-AF00-7DA058B43CD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CD0021E-7786-442A-A71E-130BAACB41EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCE83553-2081-4953-95D0-DE4371B1D5F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C361B63-C01A-4466-B380-17C150594F18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B6E2C6E-7A5E-447D-BBC8-A3240818AE3A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6DDF5D1-501B-44C0-9851-E5F686E55D66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF1B3C93-CD78-4D37-809A-28D1BA857C0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4272A950-6F67-4A50-9A01-7FB1F4CDF43F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A44C2A74-5DE6-4AF9-9734-9C0A47CF4B18}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E63828B-6500-42E4-8A8E-F274BE0C618C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4DFDA38-5372-4D9A-87AF-0DB3B4EBE7CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{300FE2E6-C8C7-4388-98B5-9CF55A2366F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41A0FA24-3098-49E6-ABCF-1E1BB47977DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7428B6E7-9DEC-480B-81E2-B4AE5B49A8AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC5F4584-FDE2-47E9-AB00-E7B122F53CAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBAEFB56-A408-48D6-8B77-380BB5583147}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9555B23-AEA3-4C00-9901-7D1998929EE7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{411EF5B0-69AA-4632-BFEB-681EACD2AFD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01BA5477-A807-4971-B7CB-938AC0BE781F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5003,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2CC91-46EB-46A1-9773-FB64FCFAA1FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62334899-F875-4183-B0DC-23C6AFF620EA}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6198,18 +6198,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E26D92CA-C2A3-4653-AA66-85C33B40EBB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{387F11B7-2582-447D-A70F-D3560EDEC0D5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D58C7D33-AE39-4607-97AF-B7DD131FF202}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3FE077C-19E4-4F70-9818-EA11F7B4DB93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F4F47E1-55BB-4467-92EA-FB40C9A2D31C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A1E7C47-A0BB-4E68-9FE9-9CED50A880DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31586317-5691-4F53-B6D0-7049393E204B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A81BCB9-CF46-43E0-86E0-E3B168C74C59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DBFCACB-F4B2-4BC2-B6E8-7F9C2EC51394}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43C2A7AF-CF46-4DC5-BC47-5334B018249C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B80E90CA-C6F5-4C9F-8BC5-A225AA764683}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8164B2CD-7EB7-4DA1-8312-17BFB0244762}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71DB209F-EB43-4BAE-BD26-BEFD68B823B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57F72057-6B93-4855-B128-D3B9582EF0B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{074CA61E-3C10-448A-ADDD-80D11DED88AE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0244BA4D-1240-4E42-BBAC-12D1D13EEC68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F90385F1-1C00-4B14-8E07-B9DEB45AA754}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A05780F-9649-49AB-88CC-A9FAA43EB757}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0058837-756D-4E04-A9A6-50584F17F294}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{790F8AC9-E445-4AB5-9AFD-43C3C0D9F332}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE79662E-F870-457A-ADC8-9263E77E407B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4DCB5F6-F95E-49E6-9360-174037FEC29F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C91BB27C-F43F-4DE4-82ED-0A3A816934B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A91E25B5-0C65-42AF-8981-346BBCACC7EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6222,7 +6222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875DE96-C8C2-4766-AFD8-D1D89456BEA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4745D9-F446-49AA-B783-E10E739493F6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7443,18 +7443,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{554D59BA-08D9-424F-BAAB-3DA1779C36B9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17C43B80-B0ED-4CCB-A61B-565412CFDB41}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFC72D8F-9ACC-4CDB-9D3A-7698FC27F733}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F615DF70-8487-41EE-B01C-E584F27F8232}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36C59FF1-DC60-4781-9D42-350B705CBF88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4B0E143-5C4B-44C3-987C-795928AC40BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D380B69A-9F8E-4BBA-9EC0-64F3DD2A64E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A22063A-ECB5-4D95-8B82-C5F4A6408A4D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DED647F4-A538-463E-9725-C42498A2659F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9ACF2B1-B1CF-49BD-B799-69ECC0784BC4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4899E374-540B-4B1A-B278-9408CC7C3ECE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEF4AEB6-3B3E-4BFC-97CF-43107A49005C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7306A609-4963-446A-A8B8-CB3A123A1D27}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6037B7E2-75B5-47A2-960A-5DBAAD4180C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8EC6FEC-BCF4-4C50-8CCD-7803C6670C6B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80D6CE8A-59C8-4598-9078-2BC63CDFD042}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14235C52-98EB-4D24-8694-6A8DB0B4DB8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7F6804E-AEEE-4C26-8D48-7717C3EE4AAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7A5DE19-B3B3-4833-A3B5-33F8713224B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F2D8163-0B44-45D9-A49C-B346BAABC9A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E22566CC-D179-4FD0-A40E-FE0E29D51623}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51E6E84E-1C72-4EE1-9D53-DB2A2332289E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF19EE8F-98C8-4F14-935F-719026F8B049}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91C454BA-0E0C-41B8-8CCE-1DBE2955D098}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7467,7 +7467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E9CE3-8063-48D9-89AA-F28DD7320017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA9E76B-91E1-436D-8B14-5B67D53CE3D9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8688,18 +8688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2667C400-FF17-405D-BE64-13E42BB85753}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4F7D1C0-EC07-44C5-80DD-5DC4B0EDBB16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EB56A98-7EB3-4489-AEB8-8E42C762A087}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E4B69D39-2C10-4526-8D94-E2452E767D90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82450955-EF75-422B-BEC2-BBC0F4499E0E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D74CE796-7E48-4F6B-8EB1-0A7029DCE499}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2325626A-926C-42A3-9D45-298505F433DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BFAEF7F-641D-436F-AA08-856C0BA3AFDD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A03B966A-A5DF-4AA0-ABFE-90F26721BDFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E649FDE-4644-4B16-8F4B-430E9EF5681D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7DF9873-D081-48CF-A6FD-8521B908AFCB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{119B0B57-8743-4BD6-BA65-A6ACC456DE3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8029FDC-2825-40A0-AC93-7BDF842A8145}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C414E1F6-DBE2-4A20-A302-B8502C6B72C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3039F5D9-B125-45DA-9F7C-D7DFD439539A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{05F27714-DBDB-443F-B8B5-0C4CA27830AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{075D838C-F093-4482-A954-901315A26D6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB987EAE-A493-440B-AA4D-3E135614E439}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7F1F1F0-DC2F-484C-A69F-46597A34C6B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C66C719F-EF7E-470D-9B9C-F1C1A0DFADD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5403544B-A9DA-43ED-BB96-8CB747F74C4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81EBE001-BFF0-4805-835F-5F65A5763B66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D1B2157-AB73-453A-B4C4-11E5A6274A21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AE7111D-46FB-49C4-A284-32A8F48C4FA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8712,7 +8712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AB19A-3268-4CC2-B777-E9EB803D7A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABD3B6-0968-4885-AADB-E24639DC4BA5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9933,18 +9933,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64C2BDDF-0F6E-4AD4-9695-BADF155612B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA4A3946-91FF-46D6-8868-91D8B7223C56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96949CD0-3291-4B52-9488-33F15D6400AD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC70C800-C865-452F-ACF1-197EF107E8DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE42A108-A14F-442C-A88C-A8B8D525CF7F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B60AEA5-614F-42B6-9C76-C765605C702B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6AD7EC6-A2F7-47A9-8EED-2CBBF17E4B8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0B37306-280F-479A-BAE0-435CA23D8054}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C54B5B49-0146-4F37-82D5-C620539EE531}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57E6CBF5-C4C8-42FF-8EEE-E3F643B9DBCB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F435D78-E3D9-4D37-A3BB-335EBD0A69F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91E43B84-5942-4526-81C7-48093A3489F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CABE2CBC-5304-424C-9AA0-1CD226CBDCFE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{94FF74CA-F697-43D9-B97C-7659AFD21E57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CC56038-CC19-4B07-AF3F-3886D2C078B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7AC226EF-BC52-4809-8BEE-49B4EAF8A582}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1E9C9A8-852E-4A1C-A37D-B9FF79FBC528}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6FAC399-DEF3-4335-A394-2503C2AEA2D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92696B61-2676-4C2F-8A08-DB337C17DD73}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1129E36E-D6B5-4933-AB61-FB121D8D07D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35608DA4-F7E2-4720-9078-BE45D761C233}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F924B8AE-B325-4F4A-AB98-A50BE5A93963}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5119CAC9-1F07-4CE2-A322-774059189B5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC51B5C6-A747-4CEB-9F74-F2FFBCF4944D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9957,7 +9957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CD84F3-56D0-418A-9759-832B98F03232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7A484F-67C8-4F99-86EA-4E7E6F0C0E0D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11178,18 +11178,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC780D92-3AB4-4233-B715-92A2021F7A75}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F799DDCF-7228-4F27-8533-2654C892C24B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B5CF1CE-0E1D-4DA9-81CD-DDDC51F78536}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{70535663-39DC-41A1-A88B-9747CA4E0C1F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1ECD2AC-ADA1-4207-8185-107039C0FCEE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CD64021-559F-46DD-B46F-D738741DE610}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6375D81-8A8E-4377-A8BB-6D578B4FEF41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7E9A123-BF57-4A4A-A7D9-65A9AC90E6D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53C5E502-8119-4623-907A-6C9C53D58555}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9DEFA08-D486-472B-B546-909F1DEE77CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AC7F6D5-749D-4CCB-846F-5382C163B52A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22AD7B04-E462-4121-B414-4E5E6DE0708F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{006FA065-55AE-4D64-8033-40E385237610}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40C5D308-3F98-404E-A623-57E58206853E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D68C7EB5-F4CD-48B6-9437-C2A46D09519F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E772A9C-BFD6-4326-A758-7A16BD1CD803}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B81C14EA-29F3-40E4-AD51-A5C4A80BF4F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4E9B0DE-6B43-424D-B544-E3BB5533FA88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8043A8E-EE4D-45A5-9252-6C98ABB16685}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE312758-51B1-435A-929A-D06C2AF1961E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E760EDC9-A3BA-4BB2-A073-C081C3A805CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5688DEC2-6570-45A4-95A3-7DC2E76075DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{593FAA38-1D26-4360-86B6-037EA897A83D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD43E16E-F190-4603-B901-0063236D4700}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11202,7 +11202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DE8107-943F-49D5-B0F3-2989F90BE915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8C6738-5666-447C-8CCD-DF179E981A19}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12415,18 +12415,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCA4D6BC-5292-4F56-BF63-9468267F7410}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{418E740F-430A-40D5-982E-B66E3C62378C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{042CC82A-9C0E-4A9A-A8B4-79DF9DF37C84}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73FF7948-A204-468B-83E1-8B7AC872FA73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C29982C2-EAC7-4936-A673-6C768C6348D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6731AA4-38FD-4DE4-83D6-B62B103C3BFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E866B2C7-0F79-4D45-85D1-3957E3554FF9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FD1836A-4FE7-4091-9A27-9682857E2879}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EED45F0-04A7-4158-80A2-919200B09028}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA218D0D-270F-40F8-9F3D-5BDB3F1BDC19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32114928-230F-4AC1-9953-261C3A4AC973}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30B446D6-DA31-4405-9590-10C5AB3AB5BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A319D71-28AA-4491-9FCA-0288B4AF45B2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55C3F238-FD6B-4636-877D-3349E2CDEF3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44E75AD1-14A4-4EA1-8D94-37B741519430}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35698DB3-AA23-461E-920F-A7A70AA834A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0A0A9F6-460F-4BE1-89E8-750B3864B776}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05158F23-FFBD-4A1C-B446-D0BD6BB2BEAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{866B2DA6-6242-45D6-A6BF-BDADF4AF8E3A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C90C76C0-A3DA-4C77-959B-1623AAE410CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D93A7B49-C43B-401B-9B70-E3C2810038D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAC1C49C-0B66-470C-90D3-FA93A03775B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DAB7787-2C44-407A-826D-53500FADEB0F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABBED12C-653F-41A2-BF63-637C69CFAFBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12439,7 +12439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5953BD7D-9392-4CB8-BE84-6C6F38CA72CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213DD777-7589-4810-A082-43ED431ECA03}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13656,18 +13656,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BA7C754-ADC2-4682-ADEE-351EFBB13DFB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF47099D-C3A5-451B-B3CC-FCCF325AF12C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F8666F-2306-41EA-90C8-972D574863B4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89CB509D-5364-4ADE-B1F6-F6B6D2C9EF82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E49B0741-A8D6-41DC-9EAB-01DEDE789460}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1301D3CD-66C6-4D42-9875-F11679EFC100}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47148B8C-DA77-4F11-A9D3-606925B32722}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90D555FF-0022-47D3-B547-69739D301C35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DD2B034-959D-46DB-9A84-26835D47F566}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AB0E2D7-4F17-496F-944A-2CCD30988322}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77D12D5B-5AF3-4DEF-AC5B-452CEC6447DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{804F2D54-FD60-4FB4-B4EF-E5A44EF1DE26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD2062A0-F7B3-41F7-950E-1CF5453FA37B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0752B930-0345-49D8-B313-8377E5A77390}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59F9EC4F-5A71-4CB4-8D17-765F00E2DBB1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{81F9DF9D-6025-4871-806A-50355E6FAC63}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54C220F6-AD27-4D75-84BC-1B98B1562835}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{063C2A2D-C4B0-4242-A939-ECA1F3DE6E51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CD53863-851F-4B20-9177-911296338A39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D0D478E-3DAC-4096-839D-149AA38DE5D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF9B3F9B-2CCF-4D1B-A098-F0852D58D9D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{107487CE-7582-4781-8662-6E080F64E57F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBDF52FF-4156-471A-BA72-39220D3652E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B94C77A-91BD-4FBD-BD66-20B2AB51E666}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13680,7 +13680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2C5C32-CA76-45C7-BBD7-8BF39900F232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31214D0A-5861-4FA2-97C6-1A3B8A8AA520}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14887,18 +14887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1470CCBA-2B8C-46A6-AF2C-2956CB61866B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF66038B-FA7D-4620-96F5-E2C7D33C857A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6498596-997F-47C3-93EC-BFE0955C898A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B35B1B5E-3B60-438B-A886-EB2215A29833}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{745BC048-D8D4-4AEA-9D90-630A9FC97758}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD32D069-EB0C-4296-8B17-AC77642F69DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{341304CB-3431-4827-AEEF-FAACC1FB51EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{294CECFC-3ABB-4558-B947-75D87297253E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44748E40-F3D8-473B-9999-AE959E1D6A46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99F384C2-F834-4514-A717-024C8DCAB60C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D705543D-BF81-45EC-B5FB-FA2B9B49044C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F573C178-1577-4AD1-8498-771B6F36C068}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8771CFFD-A9A1-46DE-BB49-35A5D8594779}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9CCE426D-35B8-4280-BAE5-9391DACAA890}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B4E5868-64DA-433C-88F4-0A6D7B704E3D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0BC5E7F3-5A8F-4B13-B755-06B27C1E4E56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC147EAA-A14A-4352-85E5-5BE60AB72CBA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA1FCE28-0C5F-4A87-9935-509BD4D5F767}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2710FF1-8D11-4D11-B5CA-B11AE920240E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA3ACE03-91B5-4864-B477-EEB0F85F154D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{901B2FB3-A171-4830-90F4-B5647106867F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD627FB2-96CB-45C6-A7F9-4F362A5FDF60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D63E5D9C-8DD8-42A2-94F4-91B40ECE1C6C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A192075-9860-4B87-9D9D-EFFE8214EEE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14911,7 +14911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951C6-A8BD-4171-A8F6-4B554D286B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6161F1-734A-4C90-B993-CD5A32D20D66}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16114,18 +16114,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F62AADF3-70BC-4E05-9CC5-234E06766F68}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{260A9565-52B8-4ED2-B253-FB39C8699585}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3ACE480-03FF-4B6F-A71A-CC03F6044A3C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1521D9D4-7251-44A8-AE7A-1615381CD7E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49C27927-3595-428A-871C-D4B6E039D0D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FEE8FA6-3F16-4C3B-B98C-7CD460CC6FAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B34E639-6121-49BB-B97F-4002FDB7D3CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F653897-0079-4CBD-A107-C1E5E9CF7128}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81B420E8-37AA-4F34-BA65-84CF5C0208B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9C05EE5-555F-4AE7-9C5A-D9EC63841FD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2171F32-375E-45DA-87E6-DADAE7447B61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{765514CA-0B00-4D5B-B84A-3BBACBA91E65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C762D617-ABA5-400C-9A89-5B7C939DED4B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CDB652D-D281-46D8-9846-8D9460CD5AB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBFAFFCF-5A0B-4917-935A-DEE92520C84E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97D0A687-B9B5-4F3B-8EE3-2C84B82002C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B38CA8A8-4A68-4FE5-A766-E35DAF957119}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0768509-DDD8-4F3B-8759-6730293ED81A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B01037DB-A5AE-4B64-B612-BB1BE756D749}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4460F450-B671-4282-B082-FB1F3C75E44F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46403AC2-7ED1-40C7-BBA8-96152DC974AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2421540-67AA-406E-B84F-B72A6E59798A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF1BA7CA-D66D-4A33-AC46-20DA57B9B2E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A8E349F-485E-455B-9571-749459227D13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
